--- a/HardcoreDungeon_개발일정 - 보미.xlsx
+++ b/HardcoreDungeon_개발일정 - 보미.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\basefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9BD777-CDEE-45B1-834B-22262ACB577E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,18 +188,10 @@
     <t>몬스터, 캐릭터 애니메이션 제작(idel, 공격, 피격모션)</t>
   </si>
   <si>
-    <t>카드UI 제작, 마을 컨셉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을1 리소스제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을 캐릭터 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점, 강화, 용병단 등 마을 UI제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">추가된 카드 UI 제작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI 배치 및 컨셉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,22 +212,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을2 리소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을3 리소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드UI 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 컨셉</t>
+  </si>
+  <si>
+    <t>로고, 마을 캐릭터 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 카드 UI 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,13 +306,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,50 +637,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="36.25" customWidth="1"/>
-    <col min="3" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="30.625" customWidth="1"/>
+    <col min="3" max="4" width="30.58203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="7" width="30.58203125" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,35 +752,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -799,121 +796,128 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -930,15 +934,6 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardcoreDungeon_개발일정 - 보미.xlsx
+++ b/HardcoreDungeon_개발일정 - 보미.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\basefile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341489C3-2267-45AF-BF4A-07B89937D5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="7035" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,124 +69,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 시스템 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 시스템 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 데이터 추가
-(아이템 및 스킬 카드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 테이블 구성
-(마을 시스템에서 쓰는 테이블 구조 및 내용 구성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 시스템 추가
-(카드 혹은 캐릭터 강화 방식 추가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 개발 필요사항 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 기본정보 / 적 기본정보 Class 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군,적 스킬 / 카드 Class 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴제 전투 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전(전투 층, 이벤트 층 ) 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 - 상점( 스킬, 캐릭터 ), 강화(스킬, 캐릭터) 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 - 던전 입장, 캐릭터 선택 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 &lt;-&gt; 던전 데이터 연동, 타이틀 화면 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리소스 적용 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 1 더미 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 1 리소스 작업
-(바위, 나무, 풀, 잔디, 꽃 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 카툰 쉐이딩 작업
-(넉넉하게 작업 완료 후 수정 진행)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 2 더미 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 2 리소스 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보미</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 모델링</t>
-  </si>
-  <si>
-    <t>몬스터 언랩, 텍스쳐 제작 / 캐릭터 레퍼런스 조사, 바디 모델링</t>
-  </si>
-  <si>
-    <t>캐릭터 헤어, 의상, 무기 모델링</t>
-  </si>
-  <si>
-    <t>캐릭터 텍스쳐 제작, 리깅</t>
-  </si>
-  <si>
-    <t>몬스터, 캐릭터 애니메이션 제작(idel, 공격, 피격모션)</t>
   </si>
   <si>
     <t>마을1 리소스제작</t>
@@ -234,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,17 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,50 +516,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.25" customWidth="1"/>
-    <col min="3" max="4" width="30.58203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="7" width="30.58203125" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="30.58203125" customWidth="1"/>
+    <col min="3" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,210 +609,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="M4" s="3"/>
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="7">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
